--- a/temp_submit/IXI_test_brain_age_submission_소융과_2020105695_김희성_6_12.xlsx
+++ b/temp_submit/IXI_test_brain_age_submission_소융과_2020105695_김희성_6_12.xlsx
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>33.288482999999999</v>
+        <v>30.136671</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>33.764220000000002</v>
+        <v>28.851036000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -702,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>69.370859999999993</v>
+        <v>64.381119999999996</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -710,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>62.237830000000002</v>
+        <v>57.730069999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -718,7 +718,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>32.917316</v>
+        <v>30.455597000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -726,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>44.937485000000002</v>
+        <v>34.963509999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -734,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>34.693752000000003</v>
+        <v>27.736273000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -742,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>25.207778999999999</v>
+        <v>26.990849000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -750,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>37.248275999999997</v>
+        <v>32.591866000000003</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -758,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>45.586052000000002</v>
+        <v>38.122826000000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -766,7 +766,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>54.546393999999999</v>
+        <v>58.116444000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -774,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>36.001761999999999</v>
+        <v>32.825935000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -782,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>30.240144999999998</v>
+        <v>30.634079</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -790,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>39.06</v>
+        <v>35.15119</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -798,7 +798,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>52.418149999999997</v>
+        <v>52.132057000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -806,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>49.882976999999997</v>
+        <v>36.775185</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -814,7 +814,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>56.259295999999999</v>
+        <v>51.106216000000003</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>46.881749999999997</v>
+        <v>44.507843000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -830,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>38.35266</v>
+        <v>30.505732999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -838,7 +838,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>42.854810000000001</v>
+        <v>35.351948</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -846,7 +846,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>50.019043000000003</v>
+        <v>45.981197000000002</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -854,7 +854,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>28.364751999999999</v>
+        <v>25.685316</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -862,7 +862,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>52.180100000000003</v>
+        <v>50.629691999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -870,7 +870,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>59.355370000000001</v>
+        <v>56.521965000000002</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -878,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>33.90005</v>
+        <v>35.815886999999996</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -886,7 +886,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>56.616639999999997</v>
+        <v>42.761060000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -894,7 +894,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>67.053790000000006</v>
+        <v>59.517563000000003</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
@@ -902,7 +902,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>39.984825000000001</v>
+        <v>36.155723999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
@@ -910,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>32.705860000000001</v>
+        <v>29.469866</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -918,7 +918,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>29.550077000000002</v>
+        <v>33.691099999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -926,7 +926,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>33.412987000000001</v>
+        <v>31.780038999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -934,7 +934,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>49.181564000000002</v>
+        <v>34.665349999999997</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
@@ -942,7 +942,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>59.764020000000002</v>
+        <v>47.234848</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -950,7 +950,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>35.999740000000003</v>
+        <v>32.331283999999997</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -958,7 +958,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>67.94735</v>
+        <v>55.172629999999998</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -966,7 +966,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>64.415665000000004</v>
+        <v>61.173935</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -974,7 +974,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>41.829493999999997</v>
+        <v>35.314056000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -982,7 +982,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>50.009045</v>
+        <v>45.181685999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -990,7 +990,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>41.000743999999997</v>
+        <v>36.535200000000003</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -998,7 +998,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>34.860306000000001</v>
+        <v>34.297558000000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -1006,7 +1006,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>70.034750000000003</v>
+        <v>60.901024</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -1014,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>64.438550000000006</v>
+        <v>62.414259999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
@@ -1022,7 +1022,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>56.596283</v>
+        <v>61.039302999999997</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
@@ -1030,7 +1030,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>57.262165000000003</v>
+        <v>58.71837</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -1038,7 +1038,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>48.977429999999998</v>
+        <v>39.599690000000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -1046,7 +1046,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>59.148772999999998</v>
+        <v>55.965877999999996</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
@@ -1054,7 +1054,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>43.695118000000001</v>
+        <v>40.809669999999997</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -1062,7 +1062,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>60.082644999999999</v>
+        <v>47.004691999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
@@ -1070,7 +1070,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>49.956383000000002</v>
+        <v>40.711544000000004</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -1078,7 +1078,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>62.249740000000003</v>
+        <v>48.588078000000003</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
@@ -1086,7 +1086,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>23.774273000000001</v>
+        <v>40.234209999999997</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -1094,7 +1094,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>30.368269999999999</v>
+        <v>27.148577</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
@@ -1102,7 +1102,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>50.932490000000001</v>
+        <v>53.987119999999997</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
@@ -1110,7 +1110,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>62.852097000000001</v>
+        <v>41.773665999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
@@ -1118,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="1">
-        <v>39.764139999999998</v>
+        <v>32.423797999999998</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
@@ -1126,7 +1126,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>35.258488</v>
+        <v>27.547031</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
@@ -1134,7 +1134,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>31.636945999999998</v>
+        <v>33.294780000000003</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
@@ -1142,7 +1142,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1">
-        <v>59.837333999999998</v>
+        <v>49.519965999999997</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
@@ -1150,7 +1150,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="1">
-        <v>58.855724000000002</v>
+        <v>54.995182</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
@@ -1158,7 +1158,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="1">
-        <v>56.297527000000002</v>
+        <v>40.946724000000003</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
@@ -1166,7 +1166,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>47.455215000000003</v>
+        <v>55.798824000000003</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
@@ -1174,7 +1174,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>63.144596</v>
+        <v>53.005626999999997</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -1182,7 +1182,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="1">
-        <v>48.479137000000001</v>
+        <v>43.800797000000003</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -1190,7 +1190,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>46.912970000000001</v>
+        <v>46.252319999999997</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
@@ -1198,7 +1198,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="1">
-        <v>55.015514000000003</v>
+        <v>56.985460000000003</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -1206,7 +1206,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>57.08661</v>
+        <v>51.469982000000002</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -1214,7 +1214,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1">
-        <v>69.415120000000002</v>
+        <v>58.814883999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -1222,7 +1222,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="1">
-        <v>43.54278</v>
+        <v>54.784785999999997</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -1230,7 +1230,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="1">
-        <v>35.321582999999997</v>
+        <v>34.613700000000001</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -1238,7 +1238,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="1">
-        <v>62.484642000000001</v>
+        <v>55.326034999999997</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
@@ -1246,7 +1246,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="1">
-        <v>32.029021999999998</v>
+        <v>32.206425000000003</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
@@ -1254,7 +1254,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="1">
-        <v>67.468215999999998</v>
+        <v>59.881625999999997</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
@@ -1262,7 +1262,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1">
-        <v>30.213982000000001</v>
+        <v>28.506806999999998</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
@@ -1270,7 +1270,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>46.861989999999999</v>
+        <v>45.021403999999997</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
@@ -1278,7 +1278,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1">
-        <v>67.911389999999997</v>
+        <v>57.709476000000002</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
@@ -1286,7 +1286,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>36.605473000000003</v>
+        <v>32.071956999999998</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
@@ -1294,7 +1294,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="1">
-        <v>56.835419999999999</v>
+        <v>52.028514999999999</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
@@ -1302,7 +1302,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>64.087190000000007</v>
+        <v>61.284990000000001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
@@ -1310,7 +1310,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1">
-        <v>50.864930000000001</v>
+        <v>42.672420000000002</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
@@ -1318,7 +1318,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>60.954726999999998</v>
+        <v>63.870829999999998</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
@@ -1326,7 +1326,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>65.524665999999996</v>
+        <v>57.914000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
@@ -1334,7 +1334,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>61.82329</v>
+        <v>55.932583000000001</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
@@ -1342,7 +1342,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="1">
-        <v>58.569090000000003</v>
+        <v>40.526671999999998</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
@@ -1350,7 +1350,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1">
-        <v>55.870559999999998</v>
+        <v>47.036808000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
@@ -1358,7 +1358,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="1">
-        <v>59.965457999999998</v>
+        <v>59.901516000000001</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
@@ -1366,7 +1366,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>39.114384000000001</v>
+        <v>34.603096000000001</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
@@ -1374,7 +1374,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>28.321100000000001</v>
+        <v>38.620890000000003</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
@@ -1382,7 +1382,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="1">
-        <v>56.848379999999999</v>
+        <v>57.692160000000001</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
@@ -1390,7 +1390,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="1">
-        <v>31.982030000000002</v>
+        <v>28.397539999999999</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
@@ -1398,7 +1398,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>30.090717000000001</v>
+        <v>28.539235999999999</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
@@ -1406,7 +1406,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="1">
-        <v>43.245956</v>
+        <v>42.781726999999997</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="1">
-        <v>33.524783999999997</v>
+        <v>34.147494999999999</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
@@ -1422,7 +1422,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="1">
-        <v>45.209217000000002</v>
+        <v>51.799860000000002</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
@@ -1430,7 +1430,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="1">
-        <v>38.955199999999998</v>
+        <v>37.847355</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
@@ -1438,7 +1438,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>33.425539999999998</v>
+        <v>32.546256999999997</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
@@ -1446,7 +1446,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="1">
-        <v>54.796959999999999</v>
+        <v>47.523359999999997</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
@@ -1454,7 +1454,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="1">
-        <v>50.719195999999997</v>
+        <v>37.242730000000002</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
@@ -1462,7 +1462,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>40.702044999999998</v>
+        <v>36.314900000000002</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
@@ -1470,7 +1470,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="1">
-        <v>65.078186000000002</v>
+        <v>51.286278000000003</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
@@ -1478,7 +1478,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="1">
-        <v>45.045113000000001</v>
+        <v>37.760975000000002</v>
       </c>
     </row>
   </sheetData>
